--- a/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.Test.verified.xlsx
@@ -401,7 +401,7 @@
     <x:col min="3" max="3" width="23.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:3">
+    <x:row r="1" spans="1:3" ht="14.25" customHeight="1">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -412,7 +412,7 @@
         <x:v>2</x:v>
       </x:c>
     </x:row>
-    <x:row r="2" spans="1:3">
+    <x:row r="2" spans="1:3" ht="14.25" customHeight="1">
       <x:c r="A2" s="1" t="s">
         <x:v>3</x:v>
       </x:c>

--- a/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.Test.verified.xlsx
+++ b/src/ExcelsiorClosedXml.Tests/ValueRenderedTests.Test.verified.xlsx
@@ -396,9 +396,8 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.424911" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="23.282054" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="23.710625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="11.710625" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="22.710625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:3" ht="14.25" customHeight="1">
